--- a/DXApplication4/bin/Debug/output.xlsx
+++ b/DXApplication4/bin/Debug/output.xlsx
@@ -17,25 +17,25 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Cedula</t>
+    <t>Numero</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>Fecha</t>
   </si>
   <si>
-    <t>Direccion</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Representate</t>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>ClienteId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/M/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -73,12 +73,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -362,10 +368,10 @@
   <cols>
     <col min="1" max="1" width="35.43" customWidth="1" style="1"/>
     <col min="2" max="2" width="35.43" customWidth="1" style="2"/>
-    <col min="3" max="3" width="35.43" customWidth="1" style="2"/>
-    <col min="4" max="4" width="35.43" customWidth="1" style="2"/>
+    <col min="3" max="3" width="35.43" customWidth="1" style="3"/>
+    <col min="4" max="4" width="35.43" customWidth="1" style="4"/>
     <col min="5" max="5" width="35.43" customWidth="1" style="2"/>
-    <col min="6" max="6" width="36" customWidth="1" style="2"/>
+    <col min="6" max="6" width="36" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -385,7 +391,7 @@
         <v>4</v>
       </c>
       <c t="s" r="F1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DXApplication4/bin/Debug/output.xlsx
+++ b/DXApplication4/bin/Debug/output.xlsx
@@ -4,9 +4,10 @@
   <workbookPr date1904="0"/>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$3</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -14,19 +15,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Numero</t>
   </si>
   <si>
+    <t>Cliente</t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>ClienteId</t>
+    <t>Total Factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALFONSO JOSEE  MENDOZA LOVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john  doe</t>
   </si>
 </sst>
 </file>
@@ -73,18 +77,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,38 +367,96 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="35.43" customWidth="1" style="1"/>
-    <col min="2" max="2" width="35.43" customWidth="1" style="2"/>
-    <col min="3" max="3" width="35.43" customWidth="1" style="3"/>
-    <col min="4" max="4" width="35.43" customWidth="1" style="4"/>
-    <col min="5" max="5" width="35.43" customWidth="1" style="2"/>
-    <col min="6" max="6" width="36" customWidth="1" style="1"/>
+    <col min="1" max="1" width="53.29" customWidth="1" style="1"/>
+    <col min="2" max="2" width="53.29" customWidth="1" style="1"/>
+    <col min="3" max="3" width="53.29" customWidth="1" style="2"/>
+    <col min="4" max="4" width="53.29" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" r="A1" s="2">
+      <c t="s" r="A1" s="3">
         <v>0</v>
       </c>
-      <c t="s" r="B1" s="2">
+      <c t="s" r="B1" s="3">
         <v>1</v>
       </c>
-      <c t="s" r="C1" s="2">
+      <c t="s" r="C1" s="3">
         <v>2</v>
       </c>
-      <c t="s" r="D1" s="2">
+      <c t="s" r="D1" s="3">
         <v>3</v>
       </c>
-      <c t="s" r="E1" s="2">
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c t="s" r="B2" s="1">
         <v>4</v>
       </c>
-      <c t="s" r="F1" s="2">
+      <c r="C2" s="2">
+        <v>44701.791701388887</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
         <v>4</v>
+      </c>
+      <c t="s" r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44701.828032407408</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12150</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:D3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c t="s" r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" r="B2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError sqref="B1:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DXApplication4/bin/Debug/output.xlsx
+++ b/DXApplication4/bin/Debug/output.xlsx
@@ -27,10 +27,13 @@
     <t>Total Factura</t>
   </si>
   <si>
-    <t xml:space="preserve">ALFONSO JOSEE  MENDOZA LOVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">john  doe</t>
+    <t xml:space="preserve">ALFONSO JOSE  MENDOZA LOVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhon  doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qweqweqw  EWEWEWEW</t>
   </si>
 </sst>
 </file>
@@ -403,16 +406,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c t="s" r="B3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>44701.828032407408</v>
+        <v>44706.943854166668</v>
       </c>
       <c r="D3" s="3">
-        <v>12150</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -425,7 +428,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$B$1:$B$2</xm:f>
+            <xm:f>Sheet2!$B$1:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
@@ -454,9 +457,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c t="s" r="B3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="B1:B2" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DXApplication4/bin/Debug/output.xlsx
+++ b/DXApplication4/bin/Debug/output.xlsx
@@ -7,7 +7,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$H$5</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -15,34 +15,577 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Total Factura</t>
+    <t>Nombre_apellido</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhon  sadasdasdasd</t>
+  </si>
+  <si>
+    <t>111-111111-1111a</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>sadasdasdasd</t>
+  </si>
+  <si>
+    <t>eewwe weeewew</t>
+  </si>
+  <si>
+    <t>jo@m.com</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Atlántico Norte</t>
   </si>
   <si>
     <t xml:space="preserve">ALFONSO JOSE  MENDOZA LOVO</t>
   </si>
   <si>
-    <t xml:space="preserve">Jhon  doe</t>
+    <t>281-290483-0011M</t>
+  </si>
+  <si>
+    <t>ALFONSO JOSE</t>
+  </si>
+  <si>
+    <t>MENDOZA LOVO</t>
+  </si>
+  <si>
+    <t>RWEEEEEEEEE@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>León</t>
   </si>
   <si>
     <t xml:space="preserve">qweqweqw  EWEWEWEW</t>
+  </si>
+  <si>
+    <t>231-123122-2222w</t>
+  </si>
+  <si>
+    <t>qweqweqw</t>
+  </si>
+  <si>
+    <t>EWEWEWEW</t>
+  </si>
+  <si>
+    <t>eeerw@wer.ewrrrrrrrrrrrr</t>
+  </si>
+  <si>
+    <t>Mulukukú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ericka Valeska   Pichardo Palma</t>
+  </si>
+  <si>
+    <t>281-091186-0016D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ericka Valeska </t>
+  </si>
+  <si>
+    <t>Pichardo Palma</t>
+  </si>
+  <si>
+    <t>rttryrty</t>
+  </si>
+  <si>
+    <t>rtyr@ty.tryrt</t>
+  </si>
+  <si>
+    <t>Bonanza</t>
+  </si>
+  <si>
+    <t>Atlántico Sur</t>
+  </si>
+  <si>
+    <t>Boaco</t>
+  </si>
+  <si>
+    <t>Puerto Cabezas</t>
+  </si>
+  <si>
+    <t>Carazo</t>
+  </si>
+  <si>
+    <t>Rosita</t>
+  </si>
+  <si>
+    <t>Chinandega</t>
+  </si>
+  <si>
+    <t>Siuna</t>
+  </si>
+  <si>
+    <t>Chontales</t>
+  </si>
+  <si>
+    <t>Waslala</t>
+  </si>
+  <si>
+    <t>Estelí</t>
+  </si>
+  <si>
+    <t>Waspán</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Jinotega</t>
+  </si>
+  <si>
+    <t>Desembocadura de Río Grande</t>
+  </si>
+  <si>
+    <t>El Ayote</t>
+  </si>
+  <si>
+    <t>Madriz</t>
+  </si>
+  <si>
+    <t>El Rama</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>El Tortuguero</t>
+  </si>
+  <si>
+    <t>Masaya</t>
+  </si>
+  <si>
+    <t>Islas del Maíz</t>
+  </si>
+  <si>
+    <t>Matagalpa</t>
+  </si>
+  <si>
+    <t>Kukra Hill</t>
+  </si>
+  <si>
+    <t>Nueva Segovia</t>
+  </si>
+  <si>
+    <t>La Cruz de Río Grande</t>
+  </si>
+  <si>
+    <t>Río San Juan</t>
+  </si>
+  <si>
+    <t>Laguna de Perlas</t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>Muelle de los Bueyes</t>
+  </si>
+  <si>
+    <t>Nueva Guinea</t>
+  </si>
+  <si>
+    <t>Camoapa</t>
+  </si>
+  <si>
+    <t>San José de los Remates</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>Teustepe</t>
+  </si>
+  <si>
+    <t>Diriamba</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>El Rosario</t>
+  </si>
+  <si>
+    <t>Jinotepe</t>
+  </si>
+  <si>
+    <t>La Conquista</t>
+  </si>
+  <si>
+    <t>La Paz de Oriente</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>Santa Teresa</t>
+  </si>
+  <si>
+    <t>Chichigalpa</t>
+  </si>
+  <si>
+    <t>Cinco Pinos</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t>El Realejo</t>
+  </si>
+  <si>
+    <t>El Viejo</t>
+  </si>
+  <si>
+    <t>Posoltega</t>
+  </si>
+  <si>
+    <t>Puerto Morazán</t>
+  </si>
+  <si>
+    <t>San Francisco del Norte</t>
+  </si>
+  <si>
+    <t>San Pedro del Norte</t>
+  </si>
+  <si>
+    <t>Santo Tomás del Norte</t>
+  </si>
+  <si>
+    <t>Somotillo</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>Acoyapa</t>
+  </si>
+  <si>
+    <t>Comalapa</t>
+  </si>
+  <si>
+    <t>Cuapa</t>
+  </si>
+  <si>
+    <t>El Coral</t>
+  </si>
+  <si>
+    <t>Juigalpa</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>San Pedro de Lóvago</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Villa Sandino</t>
+  </si>
+  <si>
+    <t>Condega</t>
+  </si>
+  <si>
+    <t>La Trinidad</t>
+  </si>
+  <si>
+    <t>Pueblo Nuevo</t>
+  </si>
+  <si>
+    <t>San Juan de Limay</t>
+  </si>
+  <si>
+    <t>San Nicolás</t>
+  </si>
+  <si>
+    <t>Diriá</t>
+  </si>
+  <si>
+    <t>Diriomo</t>
+  </si>
+  <si>
+    <t>Nandaime</t>
+  </si>
+  <si>
+    <t>El Cuá</t>
+  </si>
+  <si>
+    <t>La Concordia</t>
+  </si>
+  <si>
+    <t>San José de Bocay</t>
+  </si>
+  <si>
+    <t>San Rafael del Norte</t>
+  </si>
+  <si>
+    <t>San Sebastián de Yalí</t>
+  </si>
+  <si>
+    <t>Santa María de Pantasma</t>
+  </si>
+  <si>
+    <t>Wiwilí de Jinotega</t>
+  </si>
+  <si>
+    <t>Achuapa</t>
+  </si>
+  <si>
+    <t>El Jicaral</t>
+  </si>
+  <si>
+    <t>El Sauce</t>
+  </si>
+  <si>
+    <t>La Paz Centro</t>
+  </si>
+  <si>
+    <t>Larreynaga</t>
+  </si>
+  <si>
+    <t>Nagarote</t>
+  </si>
+  <si>
+    <t>Quezalguaque</t>
+  </si>
+  <si>
+    <t>Santa Rosa del Peñón</t>
+  </si>
+  <si>
+    <t>Telica</t>
+  </si>
+  <si>
+    <t>Las Sabanas</t>
+  </si>
+  <si>
+    <t>Palacagüina</t>
+  </si>
+  <si>
+    <t>San José de Cusmapa</t>
+  </si>
+  <si>
+    <t>San Juan de Río Coco</t>
+  </si>
+  <si>
+    <t>San Lucas</t>
+  </si>
+  <si>
+    <t>Somoto</t>
+  </si>
+  <si>
+    <t>Telpaneca</t>
+  </si>
+  <si>
+    <t>Totogalpa</t>
+  </si>
+  <si>
+    <t>Yalagüina</t>
+  </si>
+  <si>
+    <t>Ciudad Sandino</t>
+  </si>
+  <si>
+    <t>El Crucero</t>
+  </si>
+  <si>
+    <t>Mateare</t>
+  </si>
+  <si>
+    <t>San Francisco Libre</t>
+  </si>
+  <si>
+    <t>San Rafael del Sur</t>
+  </si>
+  <si>
+    <t>Ticuantepe</t>
+  </si>
+  <si>
+    <t>Tipitapa</t>
+  </si>
+  <si>
+    <t>Villa El Carmen</t>
+  </si>
+  <si>
+    <t>Catarina</t>
+  </si>
+  <si>
+    <t>La Concepción</t>
+  </si>
+  <si>
+    <t>Masatepe</t>
+  </si>
+  <si>
+    <t>Nandasmo</t>
+  </si>
+  <si>
+    <t>Nindirí</t>
+  </si>
+  <si>
+    <t>Niquinohomo</t>
+  </si>
+  <si>
+    <t>San Juan de Oriente</t>
+  </si>
+  <si>
+    <t>Tisma</t>
+  </si>
+  <si>
+    <t>Ciudad Darío</t>
+  </si>
+  <si>
+    <t>El Tuma - La Dalia</t>
+  </si>
+  <si>
+    <t>Esquipulas</t>
+  </si>
+  <si>
+    <t>Matiguás</t>
+  </si>
+  <si>
+    <t>Muy Muy</t>
+  </si>
+  <si>
+    <t>Rancho Grande</t>
+  </si>
+  <si>
+    <t>Río Blanco</t>
+  </si>
+  <si>
+    <t>San Dionisio</t>
+  </si>
+  <si>
+    <t>San Isidro</t>
+  </si>
+  <si>
+    <t>San Ramón</t>
+  </si>
+  <si>
+    <t>Sébaco</t>
+  </si>
+  <si>
+    <t>Terrabona</t>
+  </si>
+  <si>
+    <t>Ciudad Antigua</t>
+  </si>
+  <si>
+    <t>Dipilto</t>
+  </si>
+  <si>
+    <t>El Jícaro</t>
+  </si>
+  <si>
+    <t>Jalapa</t>
+  </si>
+  <si>
+    <t>Macuelizo</t>
+  </si>
+  <si>
+    <t>Mozonte</t>
+  </si>
+  <si>
+    <t>Murra</t>
+  </si>
+  <si>
+    <t>Ocotal</t>
+  </si>
+  <si>
+    <t>Quilalí</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Wiwilí</t>
+  </si>
+  <si>
+    <t>El Almendro</t>
+  </si>
+  <si>
+    <t>El Castillo</t>
+  </si>
+  <si>
+    <t>Morrito</t>
+  </si>
+  <si>
+    <t>San Carlos</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Miguelito</t>
+  </si>
+  <si>
+    <t>Altagracia</t>
+  </si>
+  <si>
+    <t>Belén</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Cárdenas</t>
+  </si>
+  <si>
+    <t>Moyogalpa</t>
+  </si>
+  <si>
+    <t>Potosí</t>
+  </si>
+  <si>
+    <t>San Jorge</t>
+  </si>
+  <si>
+    <t>San Juan del Sur</t>
+  </si>
+  <si>
+    <t>Tola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/M/yyyy"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -80,15 +623,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,67 +910,159 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="53.29" customWidth="1" style="1"/>
-    <col min="2" max="2" width="53.29" customWidth="1" style="1"/>
-    <col min="3" max="3" width="53.29" customWidth="1" style="2"/>
-    <col min="4" max="4" width="53.29" customWidth="1" style="3"/>
+    <col min="1" max="1" width="26.57" customWidth="1" style="1"/>
+    <col min="2" max="2" width="26.57" customWidth="1" style="1"/>
+    <col min="3" max="3" width="26.57" customWidth="1" style="1"/>
+    <col min="4" max="4" width="26.57" customWidth="1" style="1"/>
+    <col min="5" max="5" width="26.57" customWidth="1" style="1"/>
+    <col min="6" max="6" width="26.57" customWidth="1" style="1"/>
+    <col min="7" max="7" width="26.57" customWidth="1" style="2"/>
+    <col min="8" max="8" width="27.14" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" r="A1" s="3">
+      <c t="s" r="A1" s="1">
         <v>0</v>
       </c>
-      <c t="s" r="B1" s="3">
+      <c t="s" r="B1" s="1">
         <v>1</v>
       </c>
-      <c t="s" r="C1" s="3">
+      <c t="s" r="C1" s="1">
         <v>2</v>
       </c>
-      <c t="s" r="D1" s="3">
+      <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
+      <c t="s" r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c t="s" r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c t="s" r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c t="s" r="H1" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2</v>
+      <c t="s" r="A2" s="1">
+        <v>8</v>
       </c>
       <c t="s" r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44701.791701388887</v>
-      </c>
-      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c t="s" r="C2" s="1">
         <v>10</v>
       </c>
+      <c t="s" r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c t="s" r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c t="s" r="F2" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="G2" s="2">
+        <v>14</v>
+      </c>
+      <c t="s" r="H2" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>8</v>
+      <c t="s" r="A3" s="1">
+        <v>16</v>
       </c>
       <c t="s" r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44706.943854166668</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c t="s" r="C3" s="1">
+        <v>18</v>
+      </c>
+      <c t="s" r="D3" s="1">
+        <v>19</v>
+      </c>
+      <c t="s" r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c t="s" r="G3" s="2">
+        <v>21</v>
+      </c>
+      <c t="s" r="H3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c t="s" r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c t="s" r="C4" s="1">
+        <v>24</v>
+      </c>
+      <c t="s" r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c t="s" r="F4" s="1">
+        <v>26</v>
+      </c>
+      <c t="s" r="G4" s="2">
+        <v>27</v>
+      </c>
+      <c t="s" r="H4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c t="s" r="B5" s="1">
+        <v>29</v>
+      </c>
+      <c t="s" r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c t="s" r="D5" s="1">
+        <v>31</v>
+      </c>
+      <c t="s" r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c t="s" r="F5" s="1">
+        <v>33</v>
+      </c>
+      <c t="s" r="G5" s="2">
+        <v>21</v>
+      </c>
+      <c t="s" r="H5" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:H5"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$B$1:$B$3</xm:f>
+            <xm:f>Sheet2!$G$1:$G$152</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>G2:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$H$1:$H$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -448,23 +1080,819 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c t="s" r="B1">
-        <v>5</v>
+      <c t="s" r="G1">
+        <v>34</v>
+      </c>
+      <c t="s" r="H1">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" r="B2">
-        <v>4</v>
+      <c t="s" r="G2">
+        <v>27</v>
+      </c>
+      <c t="s" r="H2">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" r="B3">
-        <v>6</v>
+      <c t="s" r="G3">
+        <v>14</v>
+      </c>
+      <c t="s" r="H3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" r="G4">
+        <v>37</v>
+      </c>
+      <c t="s" r="H4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" r="G5">
+        <v>39</v>
+      </c>
+      <c t="s" r="H5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" r="G6">
+        <v>41</v>
+      </c>
+      <c t="s" r="H6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" r="G7">
+        <v>43</v>
+      </c>
+      <c t="s" r="H7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" r="G8">
+        <v>45</v>
+      </c>
+      <c t="s" r="H8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" r="G9">
+        <v>47</v>
+      </c>
+      <c t="s" r="H9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" r="G10">
+        <v>49</v>
+      </c>
+      <c t="s" r="H10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" r="G11">
+        <v>50</v>
+      </c>
+      <c t="s" r="H11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" r="G12">
+        <v>52</v>
+      </c>
+      <c t="s" r="H12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" r="G13">
+        <v>54</v>
+      </c>
+      <c t="s" r="H13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" r="G14">
+        <v>56</v>
+      </c>
+      <c t="s" r="H14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" r="G15">
+        <v>58</v>
+      </c>
+      <c t="s" r="H15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" r="G16">
+        <v>60</v>
+      </c>
+      <c t="s" r="H16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" r="G17">
+        <v>62</v>
+      </c>
+      <c t="s" r="H17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" r="G18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="s" r="G19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="s" r="G20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="s" r="G21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c t="s" r="G22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c t="s" r="G23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="s" r="G24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c t="s" r="G25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="s" r="G26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c t="s" r="G27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="s" r="G28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="s" r="G29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="s" r="G30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="s" r="G31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="s" r="G32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="s" r="G33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" r="G34">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="s" r="G35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="s" r="G36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37">
+      <c t="s" r="G37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="s" r="G38">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c t="s" r="G39">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="s" r="G40">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="s" r="G41">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="s" r="G42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="s" r="G43">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c t="s" r="G44">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="s" r="G45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="s" r="G46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47">
+      <c t="s" r="G47">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48">
+      <c t="s" r="G48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c t="s" r="G49">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c t="s" r="G50">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51">
+      <c t="s" r="G51">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="s" r="G52">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53">
+      <c t="s" r="G53">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="s" r="G54">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="s" r="G55">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c t="s" r="G56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="s" r="G57">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58">
+      <c t="s" r="G58">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59">
+      <c t="s" r="G59">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60">
+      <c t="s" r="G60">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61">
+      <c t="s" r="G61">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62">
+      <c t="s" r="G62">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c t="s" r="G63">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64">
+      <c t="s" r="G64">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65">
+      <c t="s" r="G65">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c t="s" r="G66">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67">
+      <c t="s" r="G67">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68">
+      <c t="s" r="G68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69">
+      <c t="s" r="G69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70">
+      <c t="s" r="G70">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71">
+      <c t="s" r="G71">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72">
+      <c t="s" r="G72">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c t="s" r="G73">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74">
+      <c t="s" r="G74">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75">
+      <c t="s" r="G75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76">
+      <c t="s" r="G76">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77">
+      <c t="s" r="G77">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78">
+      <c t="s" r="G78">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79">
+      <c t="s" r="G79">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80">
+      <c t="s" r="G80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c t="s" r="G81">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82">
+      <c t="s" r="G82">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83">
+      <c t="s" r="G83">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84">
+      <c t="s" r="G84">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85">
+      <c t="s" r="G85">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c t="s" r="G86">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87">
+      <c t="s" r="G87">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88">
+      <c t="s" r="G88">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89">
+      <c t="s" r="G89">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90">
+      <c t="s" r="G90">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91">
+      <c t="s" r="G91">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92">
+      <c t="s" r="G92">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93">
+      <c t="s" r="G93">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94">
+      <c t="s" r="G94">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95">
+      <c t="s" r="G95">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96">
+      <c t="s" r="G96">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97">
+      <c t="s" r="G97">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98">
+      <c t="s" r="G98">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99">
+      <c t="s" r="G99">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100">
+      <c t="s" r="G100">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101">
+      <c t="s" r="G101">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102">
+      <c t="s" r="G102">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103">
+      <c t="s" r="G103">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104">
+      <c t="s" r="G104">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105">
+      <c t="s" r="G105">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106">
+      <c t="s" r="G106">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107">
+      <c t="s" r="G107">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108">
+      <c t="s" r="G108">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109">
+      <c t="s" r="G109">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110">
+      <c t="s" r="G110">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111">
+      <c t="s" r="G111">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112">
+      <c t="s" r="G112">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113">
+      <c t="s" r="G113">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114">
+      <c t="s" r="G114">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115">
+      <c t="s" r="G115">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116">
+      <c t="s" r="G116">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117">
+      <c t="s" r="G117">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118">
+      <c t="s" r="G118">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119">
+      <c t="s" r="G119">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120">
+      <c t="s" r="G120">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121">
+      <c t="s" r="G121">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122">
+      <c t="s" r="G122">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123">
+      <c t="s" r="G123">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124">
+      <c t="s" r="G124">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125">
+      <c t="s" r="G125">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126">
+      <c t="s" r="G126">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127">
+      <c t="s" r="G127">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128">
+      <c t="s" r="G128">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129">
+      <c t="s" r="G129">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130">
+      <c t="s" r="G130">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131">
+      <c t="s" r="G131">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132">
+      <c t="s" r="G132">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133">
+      <c t="s" r="G133">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c t="s" r="G134">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135">
+      <c t="s" r="G135">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136">
+      <c t="s" r="G136">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137">
+      <c t="s" r="G137">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138">
+      <c t="s" r="G138">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139">
+      <c t="s" r="G139">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140">
+      <c t="s" r="G140">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141">
+      <c t="s" r="G141">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142">
+      <c t="s" r="G142">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143">
+      <c t="s" r="G143">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144">
+      <c t="s" r="G144">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145">
+      <c t="s" r="G145">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146">
+      <c t="s" r="G146">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147">
+      <c t="s" r="G147">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148">
+      <c t="s" r="G148">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149">
+      <c t="s" r="G149">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150">
+      <c t="s" r="G150">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151">
+      <c t="s" r="G151">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152">
+      <c t="s" r="G152">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="B1:B3" numberStoredAsText="1"/>
+    <ignoredError sqref="G1:H152" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>